--- a/test_srg/zebrafish_addon_150.xlsx
+++ b/test_srg/zebrafish_addon_150.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26759274")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28115725")</f>
         <v/>
       </c>
     </row>
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31896750")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25993524")</f>
         <v/>
       </c>
     </row>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/24263104")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31910818")</f>
         <v/>
       </c>
     </row>
@@ -472,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28115725")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/24263104")</f>
         <v/>
       </c>
     </row>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26806354")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/27383240")</f>
         <v/>
       </c>
     </row>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26186543")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/21483806")</f>
         <v/>
       </c>
     </row>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23221344")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28400332")</f>
         <v/>
       </c>
     </row>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/30297989")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28398516")</f>
         <v/>
       </c>
     </row>
@@ -517,187 +517,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32257095")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/22342721")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32219030")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28674520")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25976364")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28319194")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25469681")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17">
         <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28738802")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31910818")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/21483806")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/29378592")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25993524")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26365677")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26596841")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31134319")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23658843")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/27383240")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/11849240")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31773208")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28400332")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28398516")</f>
         <v/>
       </c>
     </row>
